--- a/scripts/dockerfile_list.xlsx
+++ b/scripts/dockerfile_list.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31100" windowHeight="13140"/>
+    <workbookView windowWidth="20560" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="dockerfile_list" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>文件名</t>
   </si>
@@ -535,6 +536,12 @@
   </si>
   <si>
     <t>gcr.io/arrikto/kubeflow/oidc-authservice:6ac9400</t>
+  </si>
+  <si>
+    <t>cache-deployer</t>
+  </si>
+  <si>
+    <t>registry.cn-beijing.aliyuncs.com/kubeflow1_4/</t>
   </si>
 </sst>
 </file>
@@ -542,12 +549,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,11 +563,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -571,9 +582,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,24 +650,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,7 +673,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,28 +710,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -669,45 +717,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,7 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +763,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +865,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,145 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +924,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -952,6 +966,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -963,45 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,117 +1009,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,39 +1143,45 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1185,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,7 +1245,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="87">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1528,6 +1533,210 @@
           <bgColor theme="9"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2592,7 +2801,7 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <formats count="57">
+  <formats count="87">
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
@@ -3273,6 +3482,366 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="15"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="12"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="16"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="17"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="17"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="76">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="18"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="77">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="19"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="22"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
           </reference>
         </references>
       </pivotArea>
@@ -3547,8 +4116,15 @@
   <sheetPr/>
   <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A4:A34"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" activeRow="21" previousRow="21" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3569,113 +4145,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1.14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="4" customFormat="1" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="3" customFormat="1" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="3" customFormat="1" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="3" customFormat="1" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3690,36 +4266,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="3" customFormat="1" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" s="3" customFormat="1" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="3" customFormat="1" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3734,113 +4310,113 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" s="3" customFormat="1" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="20" s="3" customFormat="1" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:3">
-      <c r="A21" s="3" t="s">
+    <row r="21" s="5" customFormat="1" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="22" s="3" customFormat="1" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="23" s="3" customFormat="1" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="24" s="3" customFormat="1" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" s="3" customFormat="1" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>5.7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="26" s="3" customFormat="1" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="27" s="3" customFormat="1" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="28" s="3" customFormat="1" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3866,25 +4442,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="31" s="3" customFormat="1" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="32" s="3" customFormat="1" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3921,8 +4497,8 @@
   <sheetPr/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3930,6 +4506,7 @@
     <col min="1" max="1" width="59.25" customWidth="1"/>
     <col min="2" max="2" width="70.375" customWidth="1"/>
     <col min="3" max="3" width="59.0625" customWidth="1"/>
+    <col min="5" max="5" width="174.1875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5261,4 +5838,34 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="47.0625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/scripts/dockerfile_list.xlsx
+++ b/scripts/dockerfile_list.xlsx
@@ -1245,7 +1245,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1737,6 +1737,90 @@
       <font>
         <color theme="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2055,389 +2139,389 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="3"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="6"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="7"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="10"/>
-    <x v="8"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="11"/>
-    <x v="9"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="12"/>
-    <x v="10"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="13"/>
-    <x v="11"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="14"/>
-    <x v="12"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="13"/>
-    <x v="15"/>
-    <x v="13"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="16"/>
-    <x v="14"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="17"/>
-    <x v="15"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="16"/>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="18"/>
-    <x v="16"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="0"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="20"/>
-    <x v="1"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="21"/>
-    <x v="2"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="22"/>
-    <x v="0"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="23"/>
-    <x v="0"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="24"/>
-    <x v="3"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="17"/>
-    <x v="7"/>
-    <x v="17"/>
-    <x v="25"/>
-    <x v="17"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="18"/>
-    <x v="26"/>
-    <x v="18"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="27"/>
-    <x v="4"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="28"/>
-    <x v="5"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="29"/>
-    <x v="6"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="30"/>
-    <x v="7"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="31"/>
-    <x v="8"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="32"/>
-    <x v="9"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="33"/>
-    <x v="10"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="34"/>
-    <x v="11"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="35"/>
-    <x v="12"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="13"/>
-    <x v="36"/>
-    <x v="13"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="19"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="37"/>
-    <x v="19"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="38"/>
-    <x v="14"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="39"/>
-    <x v="15"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="16"/>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="40"/>
-    <x v="16"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="10"/>
-    <x v="19"/>
-    <x v="41"/>
-    <x v="20"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="10"/>
-    <x v="19"/>
-    <x v="42"/>
-    <x v="20"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="10"/>
-    <x v="19"/>
-    <x v="43"/>
-    <x v="20"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="21"/>
-    <x v="9"/>
-    <x v="20"/>
-    <x v="44"/>
-    <x v="21"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="22"/>
-    <x v="11"/>
-    <x v="21"/>
-    <x v="45"/>
-    <x v="22"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="10"/>
-    <x v="19"/>
-    <x v="46"/>
-    <x v="20"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="23"/>
-    <x v="12"/>
-    <x v="22"/>
-    <x v="47"/>
-    <x v="23"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="24"/>
-    <x v="13"/>
-    <x v="23"/>
-    <x v="48"/>
-    <x v="24"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="25"/>
-    <x v="14"/>
-    <x v="24"/>
-    <x v="49"/>
-    <x v="25"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="26"/>
-    <x v="15"/>
-    <x v="25"/>
-    <x v="50"/>
-    <x v="26"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="27"/>
-    <x v="16"/>
-    <x v="26"/>
-    <x v="51"/>
-    <x v="27"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="28"/>
-    <x v="17"/>
-    <x v="27"/>
-    <x v="52"/>
-    <x v="28"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="29"/>
-    <x v="18"/>
-    <x v="28"/>
-    <x v="53"/>
-    <x v="29"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
   <r>
-    <x v="30"/>
-    <x v="19"/>
-    <x v="29"/>
-    <x v="54"/>
-    <x v="30"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
+    <x v="4294967295"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2801,7 +2885,7 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <formats count="87">
+  <formats count="99">
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
@@ -3842,6 +3926,150 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="89">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="29"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="90">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="17"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="92">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="28"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="94">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="95">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="14"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="96">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="15"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="98">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1">
+            <x v="25"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
           </reference>
         </references>
       </pivotArea>
@@ -4117,14 +4345,7 @@
   <dimension ref="A3:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A4:A34"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" activeRow="21" previousRow="21" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -4299,14 +4520,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="18" s="3" customFormat="1" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4420,14 +4641,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="29" s="3" customFormat="1" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4464,25 +4685,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="33" s="3" customFormat="1" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="34" s="3" customFormat="1" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
